--- a/dataestudiantes_recodificada.xlsx
+++ b/dataestudiantes_recodificada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomas/Documents/GitHub/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4745B37-F89B-7344-BD8B-996E0B09F273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD50436B-C272-DB42-AF32-958841318568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="20240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -544,166 +544,166 @@
     <t>El uso de celular</t>
   </si>
   <si>
-    <t>curso,</t>
-  </si>
-  <si>
-    <t>escuela,</t>
-  </si>
-  <si>
-    <t>usos_inet_a,</t>
-  </si>
-  <si>
-    <t>usos_inet_b,</t>
-  </si>
-  <si>
-    <t>usos_inet_c,</t>
-  </si>
-  <si>
-    <t>usos_inet_d,</t>
-  </si>
-  <si>
-    <t>usos_inet_e,</t>
-  </si>
-  <si>
-    <t>usos_inet_f,</t>
-  </si>
-  <si>
-    <t>usos_inet_g,</t>
-  </si>
-  <si>
-    <t>usos_inet_h,</t>
-  </si>
-  <si>
-    <t>usos_inet_i,</t>
-  </si>
-  <si>
-    <t>hab_archivos,</t>
-  </si>
-  <si>
-    <t>hab_word,</t>
-  </si>
-  <si>
-    <t>hab_google,</t>
-  </si>
-  <si>
-    <t>hab_ppt,</t>
-  </si>
-  <si>
-    <t>hab_excel,</t>
-  </si>
-  <si>
-    <t>hab_problemas,</t>
-  </si>
-  <si>
-    <t>hab_ia,</t>
-  </si>
-  <si>
-    <t>hab_zoom,</t>
-  </si>
-  <si>
-    <t>hab_programacion,</t>
-  </si>
-  <si>
-    <t>disp_escuela_a,</t>
-  </si>
-  <si>
-    <t>disp_escuela_b,</t>
-  </si>
-  <si>
-    <t>disp_escuela_c,</t>
-  </si>
-  <si>
-    <t>disp_escuela_d,</t>
-  </si>
-  <si>
-    <t>disp_escuela_e,</t>
-  </si>
-  <si>
-    <t>disp_casa_a,</t>
-  </si>
-  <si>
-    <t>disp_casa_b,</t>
-  </si>
-  <si>
-    <t>disp_casa_c,</t>
-  </si>
-  <si>
-    <t>disp_casa_d,</t>
-  </si>
-  <si>
-    <t>func_inet_escuela,</t>
-  </si>
-  <si>
-    <t>soporte_it_escuela,</t>
-  </si>
-  <si>
-    <t>estado_pc_escuela,</t>
-  </si>
-  <si>
-    <t>profesores_uso_tecnologia,</t>
-  </si>
-  <si>
-    <t>suficientes_pc_escuela,</t>
-  </si>
-  <si>
-    <t>gusta_profesores_uso_tec,</t>
-  </si>
-  <si>
-    <t>clases_entretenidas_tecnologia,</t>
-  </si>
-  <si>
-    <t>tecnología_entender_mejor,</t>
-  </si>
-  <si>
-    <t>tecnologia_tareas_tiempo,</t>
-  </si>
-  <si>
-    <t>comodidad_con_tecnologia_aprender,</t>
-  </si>
-  <si>
-    <t>tecnologia_importante_futuro,</t>
-  </si>
-  <si>
-    <t>tecnologia_interes_clases,</t>
-  </si>
-  <si>
-    <t>tecnologia_distraccion_clases,</t>
-  </si>
-  <si>
-    <t>aprendizaje_independiente_tecnologia,</t>
-  </si>
-  <si>
-    <t>tecnologia_creatividad,</t>
-  </si>
-  <si>
-    <t>mejoras_escuela,</t>
-  </si>
-  <si>
-    <t>opinion_mejoras,</t>
-  </si>
-  <si>
-    <t>uso_salas_steam,</t>
-  </si>
-  <si>
-    <t>mejoras_motivacion,</t>
-  </si>
-  <si>
-    <t>mejoras_clases,</t>
-  </si>
-  <si>
-    <t>mejoras_capacidad_trabajos,</t>
-  </si>
-  <si>
-    <t>mejora_comunicacion_profesores,</t>
-  </si>
-  <si>
-    <t>mejoras_ambiente_colegio,</t>
-  </si>
-  <si>
-    <t>mejoras_preparacion_futuro,</t>
-  </si>
-  <si>
-    <t>mejoras_colaboracion_companeros,</t>
+    <t>curso</t>
+  </si>
+  <si>
+    <t>escuela</t>
+  </si>
+  <si>
+    <t>usos_inet_a</t>
+  </si>
+  <si>
+    <t>usos_inet_b</t>
+  </si>
+  <si>
+    <t>usos_inet_c</t>
+  </si>
+  <si>
+    <t>usos_inet_d</t>
+  </si>
+  <si>
+    <t>usos_inet_e</t>
+  </si>
+  <si>
+    <t>usos_inet_f</t>
+  </si>
+  <si>
+    <t>usos_inet_g</t>
+  </si>
+  <si>
+    <t>usos_inet_h</t>
+  </si>
+  <si>
+    <t>usos_inet_i</t>
+  </si>
+  <si>
+    <t>hab_archivos</t>
+  </si>
+  <si>
+    <t>hab_word</t>
+  </si>
+  <si>
+    <t>hab_google</t>
+  </si>
+  <si>
+    <t>hab_ppt</t>
+  </si>
+  <si>
+    <t>hab_excel</t>
+  </si>
+  <si>
+    <t>hab_problemas</t>
+  </si>
+  <si>
+    <t>hab_ia</t>
+  </si>
+  <si>
+    <t>hab_zoom</t>
+  </si>
+  <si>
+    <t>hab_programacion</t>
+  </si>
+  <si>
+    <t>disp_escuela_a</t>
+  </si>
+  <si>
+    <t>disp_escuela_b</t>
+  </si>
+  <si>
+    <t>disp_escuela_c</t>
+  </si>
+  <si>
+    <t>disp_escuela_d</t>
+  </si>
+  <si>
+    <t>disp_escuela_e</t>
+  </si>
+  <si>
+    <t>disp_casa_a</t>
+  </si>
+  <si>
+    <t>disp_casa_b</t>
+  </si>
+  <si>
+    <t>disp_casa_c</t>
+  </si>
+  <si>
+    <t>disp_casa_d</t>
+  </si>
+  <si>
+    <t>func_inet_escuela</t>
+  </si>
+  <si>
+    <t>soporte_it_escuela</t>
+  </si>
+  <si>
+    <t>estado_pc_escuela</t>
+  </si>
+  <si>
+    <t>profesores_uso_tecnologia</t>
+  </si>
+  <si>
+    <t>suficientes_pc_escuela</t>
+  </si>
+  <si>
+    <t>gusta_profesores_uso_tec</t>
+  </si>
+  <si>
+    <t>clases_entretenidas_tecnologia</t>
+  </si>
+  <si>
+    <t>tecnología_entender_mejor</t>
+  </si>
+  <si>
+    <t>tecnologia_tareas_tiempo</t>
+  </si>
+  <si>
+    <t>comodidad_con_tecnologia_aprender</t>
+  </si>
+  <si>
+    <t>tecnologia_importante_futuro</t>
+  </si>
+  <si>
+    <t>tecnologia_interes_clases</t>
+  </si>
+  <si>
+    <t>tecnologia_distraccion_clases</t>
+  </si>
+  <si>
+    <t>aprendizaje_independiente_tecnologia</t>
+  </si>
+  <si>
+    <t>tecnologia_creatividad</t>
+  </si>
+  <si>
+    <t>mejoras_escuela</t>
+  </si>
+  <si>
+    <t>opinion_mejoras</t>
+  </si>
+  <si>
+    <t>uso_salas_steam</t>
+  </si>
+  <si>
+    <t>mejoras_motivacion</t>
+  </si>
+  <si>
+    <t>mejoras_clases</t>
+  </si>
+  <si>
+    <t>mejoras_capacidad_trabajos</t>
+  </si>
+  <si>
+    <t>mejora_comunicacion_profesores</t>
+  </si>
+  <si>
+    <t>mejoras_ambiente_colegio</t>
+  </si>
+  <si>
+    <t>mejoras_preparacion_futuro</t>
+  </si>
+  <si>
+    <t>mejoras_colaboracion_companeros</t>
   </si>
 </sst>
 </file>
